--- a/UDISE/UDISE STATUS REPORT.xlsx
+++ b/UDISE/UDISE STATUS REPORT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\UDISE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D5C7A4-E7F7-464A-B1A0-2FC666DB8E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463D93EC-F97A-466A-8B15-EBABAC43715D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C4533D67-4512-4626-BAF9-FB19E6991AC2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C4533D67-4512-4626-BAF9-FB19E6991AC2}"/>
   </bookViews>
   <sheets>
     <sheet name="TEACHERS" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4150,7 +4150,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{286F929A-34AF-4D38-BDC4-95CA76664B2D}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{286F929A-34AF-4D38-BDC4-95CA76664B2D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K6:K16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField showAll="0"/>
@@ -9331,8 +9331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA72681-E3B8-4EF2-A4B7-85E9DE499885}">
   <dimension ref="A1:L185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15932,13 +15932,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAC754B-CD84-4287-BFE6-F2E4AA6E40E6}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:R185"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A104" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:D185"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16012,7 +16012,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="4" spans="1:18" ht="18.75" customHeight="1">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="5" spans="1:18" ht="18.75" customHeight="1">
       <c r="A5" s="16">
         <v>2</v>
       </c>
@@ -16114,7 +16114,7 @@
       </c>
       <c r="R5" s="42"/>
     </row>
-    <row r="6" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="6" spans="1:18" ht="18.75" customHeight="1">
       <c r="A6" s="16">
         <v>3</v>
       </c>
@@ -16177,7 +16177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="7" spans="1:18" ht="18.75" customHeight="1">
       <c r="A7" s="16">
         <v>4</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="8" spans="1:18" ht="18.75" customHeight="1">
       <c r="A8" s="16">
         <v>5</v>
       </c>
@@ -16303,7 +16303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="9" spans="1:18" ht="18.75" customHeight="1">
       <c r="A9" s="16">
         <v>6</v>
       </c>
@@ -16366,7 +16366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="10" spans="1:18" ht="18.75" customHeight="1">
       <c r="A10" s="16">
         <v>7</v>
       </c>
@@ -16429,7 +16429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="11" spans="1:18" ht="18.75" customHeight="1">
       <c r="A11" s="16">
         <v>8</v>
       </c>
@@ -16492,7 +16492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="12" spans="1:18" ht="18.75" customHeight="1">
       <c r="A12" s="16">
         <v>9</v>
       </c>
@@ -16555,7 +16555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="13" spans="1:18" ht="18.75" customHeight="1">
       <c r="A13" s="16">
         <v>10</v>
       </c>
@@ -16618,7 +16618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="14" spans="1:18" ht="18.75" customHeight="1">
       <c r="A14" s="16">
         <v>11</v>
       </c>
@@ -16742,7 +16742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="16" spans="1:18" ht="18.75" customHeight="1">
       <c r="A16" s="16">
         <v>13</v>
       </c>
@@ -16775,7 +16775,7 @@
         <v>24/01/2023 21:41</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1">
       <c r="A17" s="16">
         <v>14</v>
       </c>
@@ -16808,7 +16808,7 @@
         <v>24/01/2023 00:56</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1">
       <c r="A18" s="16">
         <v>15</v>
       </c>
@@ -16841,7 +16841,7 @@
         <v>25/01/2023 00:59</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1">
       <c r="A19" s="16">
         <v>16</v>
       </c>
@@ -16874,7 +16874,7 @@
         <v>24/01/2023 11:39</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1">
       <c r="A20" s="16">
         <v>17</v>
       </c>
@@ -16907,7 +16907,7 @@
         <v>24/01/2023 23:09</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1">
       <c r="A21" s="16">
         <v>18</v>
       </c>
@@ -17204,7 +17204,7 @@
         <v>25/01/2023 17:13</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="30" spans="1:9" ht="18.75" customHeight="1">
       <c r="A30" s="16">
         <v>27</v>
       </c>
@@ -17237,7 +17237,7 @@
         <v>25/01/2023 15:04</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="31" spans="1:9" ht="18.75" customHeight="1">
       <c r="A31" s="16">
         <v>28</v>
       </c>
@@ -17270,7 +17270,7 @@
         <v>25/01/2023 15:15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="32" spans="1:9" ht="18.75" customHeight="1">
       <c r="A32" s="16">
         <v>29</v>
       </c>
@@ -17303,7 +17303,7 @@
         <v>25/01/2023 16:54</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="33" spans="1:9" ht="18.75" customHeight="1">
       <c r="A33" s="16">
         <v>30</v>
       </c>
@@ -17336,7 +17336,7 @@
         <v>25/01/2023 16:20</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="34" spans="1:9" ht="18.75" customHeight="1">
       <c r="A34" s="16">
         <v>31</v>
       </c>
@@ -17402,7 +17402,7 @@
         <v>25/01/2023 16:33</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="36" spans="1:9" ht="18.75" customHeight="1">
       <c r="A36" s="16">
         <v>33</v>
       </c>
@@ -17468,7 +17468,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="38" spans="1:9" ht="18.75" customHeight="1">
       <c r="A38" s="16">
         <v>35</v>
       </c>
@@ -17501,7 +17501,7 @@
         <v>23/01/2023 15:04</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="39" spans="1:9" ht="18.75" customHeight="1">
       <c r="A39" s="16">
         <v>36</v>
       </c>
@@ -17534,7 +17534,7 @@
         <v>25/01/2023 13:38</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="40" spans="1:9" ht="18.75" customHeight="1">
       <c r="A40" s="16">
         <v>37</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>24/01/2023 14:05</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="43" spans="1:9" ht="18.75" customHeight="1">
       <c r="A43" s="16">
         <v>40</v>
       </c>
@@ -17765,7 +17765,7 @@
         <v>24/01/2023 15:20</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="47" spans="1:9" ht="18.75" customHeight="1">
       <c r="A47" s="16">
         <v>44</v>
       </c>
@@ -17798,7 +17798,7 @@
         <v>23/01/2023 19:54</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="48" spans="1:9" ht="18.75" customHeight="1">
       <c r="A48" s="16">
         <v>45</v>
       </c>
@@ -17831,7 +17831,7 @@
         <v>24/01/2023 14:26</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="49" spans="1:9" ht="18.75" customHeight="1">
       <c r="A49" s="16">
         <v>46</v>
       </c>
@@ -17963,7 +17963,7 @@
         <v>02/11/2022 00:44</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="53" spans="1:9" ht="18.75" customHeight="1">
       <c r="A53" s="16">
         <v>50</v>
       </c>
@@ -17996,7 +17996,7 @@
         <v>24/01/2023 16:41</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="54" spans="1:9" ht="18.75" customHeight="1">
       <c r="A54" s="16">
         <v>51</v>
       </c>
@@ -18029,7 +18029,7 @@
         <v>25/01/2023 18:24</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="55" spans="1:9" ht="18.75" customHeight="1">
       <c r="A55" s="16">
         <v>52</v>
       </c>
@@ -18095,7 +18095,7 @@
         <v>24/01/2023 20:09</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="57" spans="1:9" ht="18.75" customHeight="1">
       <c r="A57" s="16">
         <v>54</v>
       </c>
@@ -18161,7 +18161,7 @@
         <v>24/01/2023 11:42</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="59" spans="1:9" ht="18.75" customHeight="1">
       <c r="A59" s="16">
         <v>56</v>
       </c>
@@ -18227,7 +18227,7 @@
         <v>24/01/2023 15:22</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="61" spans="1:9" ht="18.75" customHeight="1">
       <c r="A61" s="16">
         <v>58</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>24/01/2023 11:19</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="67" spans="1:9" ht="18.75" customHeight="1">
       <c r="A67" s="16">
         <v>64</v>
       </c>
@@ -18524,7 +18524,7 @@
         <v>25/01/2023 13:02</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="70" spans="1:9" ht="18.75" customHeight="1">
       <c r="A70" s="16">
         <v>67</v>
       </c>
@@ -18656,7 +18656,7 @@
         <v>24/01/2023 00:45</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="74" spans="1:9" ht="18.75" customHeight="1">
       <c r="A74" s="16">
         <v>71</v>
       </c>
@@ -18689,7 +18689,7 @@
         <v>25/01/2023 06:27</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="75" spans="1:9" ht="18.75" customHeight="1">
       <c r="A75" s="16">
         <v>72</v>
       </c>
@@ -18722,7 +18722,7 @@
         <v>24/01/2023 11:55</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="76" spans="1:9" ht="18.75" customHeight="1">
       <c r="A76" s="16">
         <v>73</v>
       </c>
@@ -18755,7 +18755,7 @@
         <v>23/01/2023 21:38</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="77" spans="1:9" ht="18.75" customHeight="1">
       <c r="A77" s="16">
         <v>74</v>
       </c>
@@ -18788,7 +18788,7 @@
         <v>24/01/2023 21:21</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="78" spans="1:9" ht="18.75" customHeight="1">
       <c r="A78" s="16">
         <v>75</v>
       </c>
@@ -18821,7 +18821,7 @@
         <v>23/01/2023 23:34</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="79" spans="1:9" ht="18.75" customHeight="1">
       <c r="A79" s="16">
         <v>76</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>24/01/2023 14:03</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="80" spans="1:9" ht="18.75" customHeight="1">
       <c r="A80" s="16">
         <v>77</v>
       </c>
@@ -18887,7 +18887,7 @@
         <v>24/01/2023 11:57</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="81" spans="1:9" ht="18.75" customHeight="1">
       <c r="A81" s="16">
         <v>78</v>
       </c>
@@ -18920,7 +18920,7 @@
         <v>23/01/2023 20:17</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="82" spans="1:9" ht="18.75" customHeight="1">
       <c r="A82" s="16">
         <v>79</v>
       </c>
@@ -18953,7 +18953,7 @@
         <v>23/01/2023 23:40</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="83" spans="1:9" ht="18.75" customHeight="1">
       <c r="A83" s="16">
         <v>80</v>
       </c>
@@ -18986,7 +18986,7 @@
         <v>25/01/2023 14:17</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="84" spans="1:9" ht="18.75" customHeight="1">
       <c r="A84" s="16">
         <v>81</v>
       </c>
@@ -19019,7 +19019,7 @@
         <v>25/01/2023 14:27</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="85" spans="1:9" ht="18.75" customHeight="1">
       <c r="A85" s="16">
         <v>82</v>
       </c>
@@ -19085,7 +19085,7 @@
         <v>24/01/2023 20:00</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="87" spans="1:9" ht="18.75" customHeight="1">
       <c r="A87" s="16">
         <v>84</v>
       </c>
@@ -19151,7 +19151,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="89" spans="1:9" ht="18.75" customHeight="1">
       <c r="A89" s="16">
         <v>86</v>
       </c>
@@ -19184,7 +19184,7 @@
         <v>25/01/2023 18:27</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="90" spans="1:9" ht="18.75" customHeight="1">
       <c r="A90" s="16">
         <v>87</v>
       </c>
@@ -19217,7 +19217,7 @@
         <v>24/01/2023 19:33</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="91" spans="1:9" ht="18.75" customHeight="1">
       <c r="A91" s="16">
         <v>88</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>24/01/2023 17:11</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="92" spans="1:9" ht="18.75" customHeight="1">
       <c r="A92" s="16">
         <v>89</v>
       </c>
@@ -19283,7 +19283,7 @@
         <v>25/01/2023 14:08</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="93" spans="1:9" ht="18.75" customHeight="1">
       <c r="A93" s="16">
         <v>90</v>
       </c>
@@ -19316,7 +19316,7 @@
         <v>24/01/2023 19:55</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="94" spans="1:9" ht="18.75" customHeight="1">
       <c r="A94" s="16">
         <v>91</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>24/01/2023 17:10</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="95" spans="1:9" ht="18.75" customHeight="1">
       <c r="A95" s="16">
         <v>92</v>
       </c>
@@ -19415,7 +19415,7 @@
         <v>24/01/2023 21:45</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="97" spans="1:9" ht="18.75" customHeight="1">
       <c r="A97" s="16">
         <v>94</v>
       </c>
@@ -19448,7 +19448,7 @@
         <v>24/01/2023 17:07</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="98" spans="1:9" ht="18.75" customHeight="1">
       <c r="A98" s="16">
         <v>95</v>
       </c>
@@ -19481,7 +19481,7 @@
         <v>24/01/2023 19:21</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="99" spans="1:9" ht="18.75" customHeight="1">
       <c r="A99" s="16">
         <v>96</v>
       </c>
@@ -19514,7 +19514,7 @@
         <v>24/01/2023 19:39</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="100" spans="1:9" ht="18.75" customHeight="1">
       <c r="A100" s="16">
         <v>97</v>
       </c>
@@ -19547,7 +19547,7 @@
         <v>24/01/2023 17:02</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="101" spans="1:9" ht="18.75" customHeight="1">
       <c r="A101" s="16">
         <v>98</v>
       </c>
@@ -19580,7 +19580,7 @@
         <v>24/01/2023 16:22</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="102" spans="1:9" ht="18.75" customHeight="1">
       <c r="A102" s="16">
         <v>99</v>
       </c>
@@ -19613,7 +19613,7 @@
         <v>24/01/2023 16:44</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="103" spans="1:9" ht="18.75" customHeight="1">
       <c r="A103" s="16">
         <v>100</v>
       </c>
@@ -19679,7 +19679,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="105" spans="1:9" ht="18.75" customHeight="1">
       <c r="A105" s="16">
         <v>102</v>
       </c>
@@ -19712,7 +19712,7 @@
         <v>24/01/2023 19:28</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="106" spans="1:9" ht="18.75" customHeight="1">
       <c r="A106" s="16">
         <v>103</v>
       </c>
@@ -19745,7 +19745,7 @@
         <v>24/01/2023 19:51</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="107" spans="1:9" ht="18.75" customHeight="1">
       <c r="A107" s="16">
         <v>104</v>
       </c>
@@ -19778,7 +19778,7 @@
         <v>24/01/2023 19:45</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="108" spans="1:9" ht="18.75" customHeight="1">
       <c r="A108" s="16">
         <v>105</v>
       </c>
@@ -19844,7 +19844,7 @@
         <v>24/01/2023 10:54</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="110" spans="1:9" ht="18.75" customHeight="1">
       <c r="A110" s="16">
         <v>107</v>
       </c>
@@ -19910,7 +19910,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="112" spans="1:9" ht="18.75" customHeight="1">
       <c r="A112" s="16">
         <v>109</v>
       </c>
@@ -19943,7 +19943,7 @@
         <v>24/01/2023 15:09</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="113" spans="1:9" ht="18.75" customHeight="1">
       <c r="A113" s="16">
         <v>110</v>
       </c>
@@ -19976,7 +19976,7 @@
         <v>24/01/2023 20:00</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="114" spans="1:9" ht="18.75" customHeight="1">
       <c r="A114" s="16">
         <v>111</v>
       </c>
@@ -20009,7 +20009,7 @@
         <v>24/01/2023 16:13</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="115" spans="1:9" ht="18.75" customHeight="1">
       <c r="A115" s="16">
         <v>112</v>
       </c>
@@ -20042,7 +20042,7 @@
         <v>24/01/2023 19:50</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="116" spans="1:9" ht="18.75" customHeight="1">
       <c r="A116" s="16">
         <v>113</v>
       </c>
@@ -20075,7 +20075,7 @@
         <v>23/01/2023 13:07</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="117" spans="1:9" ht="18.75" customHeight="1">
       <c r="A117" s="16">
         <v>114</v>
       </c>
@@ -20108,7 +20108,7 @@
         <v>24/01/2023 16:47</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="118" spans="1:9" ht="18.75" customHeight="1">
       <c r="A118" s="16">
         <v>115</v>
       </c>
@@ -20141,7 +20141,7 @@
         <v>24/01/2023 19:28</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="119" spans="1:9" ht="18.75" customHeight="1">
       <c r="A119" s="16">
         <v>116</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>24/01/2023 17:55</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="120" spans="1:9" ht="18.75" customHeight="1">
       <c r="A120" s="16">
         <v>117</v>
       </c>
@@ -20207,7 +20207,7 @@
         <v>24/01/2023 19:08</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="121" spans="1:9" ht="18.75" customHeight="1">
       <c r="A121" s="16">
         <v>118</v>
       </c>
@@ -20240,7 +20240,7 @@
         <v>24/01/2023 13:28</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="122" spans="1:9" ht="18.75" customHeight="1">
       <c r="A122" s="16">
         <v>119</v>
       </c>
@@ -20273,7 +20273,7 @@
         <v>24/01/2023 20:29</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="123" spans="1:9" ht="18.75" customHeight="1">
       <c r="A123" s="16">
         <v>120</v>
       </c>
@@ -20306,7 +20306,7 @@
         <v>24/01/2023 18:30</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="124" spans="1:9" ht="18.75" customHeight="1">
       <c r="A124" s="16">
         <v>121</v>
       </c>
@@ -20339,7 +20339,7 @@
         <v>24/01/2023 20:10</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="125" spans="1:9" ht="18.75" customHeight="1">
       <c r="A125" s="16">
         <v>122</v>
       </c>
@@ -20372,7 +20372,7 @@
         <v>24/01/2023 16:35</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="126" spans="1:9" ht="18.75" customHeight="1">
       <c r="A126" s="16">
         <v>123</v>
       </c>
@@ -20405,7 +20405,7 @@
         <v>24/01/2023 20:40</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="127" spans="1:9" ht="18.75" customHeight="1">
       <c r="A127" s="16">
         <v>124</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>25/01/2023 14:34</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="130" spans="1:9" ht="18.75" customHeight="1">
       <c r="A130" s="16">
         <v>127</v>
       </c>
@@ -20537,7 +20537,7 @@
         <v>25/01/2023 17:28</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="131" spans="1:9" ht="18.75" customHeight="1">
       <c r="A131" s="16">
         <v>128</v>
       </c>
@@ -20570,7 +20570,7 @@
         <v>24/01/2023 16:34</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="132" spans="1:9" ht="18.75" customHeight="1">
       <c r="A132" s="16">
         <v>129</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>25/01/2023 14:58</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="133" spans="1:9" ht="18.75" customHeight="1">
       <c r="A133" s="16">
         <v>130</v>
       </c>
@@ -20636,7 +20636,7 @@
         <v>25/01/2023 13:14</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="134" spans="1:9" ht="18.75" customHeight="1">
       <c r="A134" s="16">
         <v>131</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>24/01/2023 16:38</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="135" spans="1:9" ht="18.75" customHeight="1">
       <c r="A135" s="16">
         <v>132</v>
       </c>
@@ -20735,7 +20735,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="137" spans="1:9" ht="18.75" customHeight="1">
       <c r="A137" s="16">
         <v>134</v>
       </c>
@@ -20768,7 +20768,7 @@
         <v>25/01/2023 15:42</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="138" spans="1:9" ht="18.75" customHeight="1">
       <c r="A138" s="16">
         <v>135</v>
       </c>
@@ -20900,7 +20900,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="142" spans="1:9" ht="18.75" customHeight="1">
       <c r="A142" s="16">
         <v>139</v>
       </c>
@@ -20999,7 +20999,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="145" spans="1:9" ht="18.75" customHeight="1">
       <c r="A145" s="16">
         <v>142</v>
       </c>
@@ -21032,7 +21032,7 @@
         <v>22/01/2023 21:48</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="146" spans="1:9" ht="18.75" customHeight="1">
       <c r="A146" s="16">
         <v>143</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>23/01/2023 20:51</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="147" spans="1:9" ht="18.75" customHeight="1">
       <c r="A147" s="16">
         <v>144</v>
       </c>
@@ -21131,7 +21131,7 @@
         <v>25/01/2023 11:36</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="149" spans="1:9" ht="18.75" customHeight="1">
       <c r="A149" s="16">
         <v>146</v>
       </c>
@@ -21164,7 +21164,7 @@
         <v>25/01/2023 18:11</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="150" spans="1:9" ht="18.75" customHeight="1">
       <c r="A150" s="16">
         <v>147</v>
       </c>
@@ -21230,7 +21230,7 @@
         <v>24/01/2023 15:27</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="152" spans="1:9" ht="18.75" customHeight="1">
       <c r="A152" s="16">
         <v>149</v>
       </c>
@@ -21263,7 +21263,7 @@
         <v>24/01/2023 19:54</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="153" spans="1:9" ht="18.75" customHeight="1">
       <c r="A153" s="16">
         <v>150</v>
       </c>
@@ -21296,7 +21296,7 @@
         <v>25/01/2023 00:01</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="154" spans="1:9" ht="18.75" customHeight="1">
       <c r="A154" s="16">
         <v>151</v>
       </c>
@@ -21329,7 +21329,7 @@
         <v>25/01/2023 11:38</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="155" spans="1:9" ht="18.75" customHeight="1">
       <c r="A155" s="16">
         <v>152</v>
       </c>
@@ -21395,7 +21395,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="157" spans="1:9" ht="18.75" customHeight="1">
       <c r="A157" s="16">
         <v>154</v>
       </c>
@@ -21428,7 +21428,7 @@
         <v>25/01/2023 11:40</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="158" spans="1:9" ht="18.75" customHeight="1">
       <c r="A158" s="16">
         <v>155</v>
       </c>
@@ -21494,7 +21494,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="160" spans="1:9" ht="18.75" customHeight="1">
       <c r="A160" s="16">
         <v>157</v>
       </c>
@@ -21527,7 +21527,7 @@
         <v>25/01/2023 10:44</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="161" spans="1:9" ht="18.75" customHeight="1">
       <c r="A161" s="16">
         <v>158</v>
       </c>
@@ -21593,7 +21593,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="163" spans="1:9" ht="18.75" customHeight="1">
       <c r="A163" s="16">
         <v>160</v>
       </c>
@@ -21626,7 +21626,7 @@
         <v>24/01/2023 14:40</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="164" spans="1:9" ht="18.75" customHeight="1">
       <c r="A164" s="16">
         <v>161</v>
       </c>
@@ -21659,7 +21659,7 @@
         <v>23/01/2023 21:10</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="165" spans="1:9" ht="18.75" customHeight="1">
       <c r="A165" s="16">
         <v>162</v>
       </c>
@@ -21692,7 +21692,7 @@
         <v>24/01/2023 20:45</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="166" spans="1:9" ht="18.75" customHeight="1">
       <c r="A166" s="16">
         <v>163</v>
       </c>
@@ -21725,7 +21725,7 @@
         <v>23/01/2023 20:00</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="167" spans="1:9" ht="18.75" customHeight="1">
       <c r="A167" s="16">
         <v>164</v>
       </c>
@@ -21758,7 +21758,7 @@
         <v>24/01/2023 14:59</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="168" spans="1:9" ht="18.75" customHeight="1">
       <c r="A168" s="16">
         <v>165</v>
       </c>
@@ -21824,7 +21824,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="170" spans="1:9" ht="18.75" customHeight="1">
       <c r="A170" s="16">
         <v>167</v>
       </c>
@@ -21890,7 +21890,7 @@
         <v>25/01/2023 00:22</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="172" spans="1:9" ht="18.75" customHeight="1">
       <c r="A172" s="16">
         <v>169</v>
       </c>
@@ -21923,7 +21923,7 @@
         <v>25/01/2023 18:16</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="173" spans="1:9" ht="18.75" customHeight="1">
       <c r="A173" s="16">
         <v>170</v>
       </c>
@@ -22055,7 +22055,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="177" spans="1:9" ht="18.75" customHeight="1">
       <c r="A177" s="16">
         <v>174</v>
       </c>
@@ -22121,7 +22121,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+    <row r="179" spans="1:9" ht="18.75" customHeight="1">
       <c r="A179" s="16">
         <v>176</v>
       </c>
@@ -22353,13 +22353,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H185" xr:uid="{1FAC754B-CD84-4287-BFE6-F2E4AA6E40E6}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Incomplete"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:H185" xr:uid="{1FAC754B-CD84-4287-BFE6-F2E4AA6E40E6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L6:R14">
     <sortCondition ref="O6:O14"/>
     <sortCondition ref="Q6:Q14"/>
